--- a/src/com/resources/questions/questions-list.xlsx
+++ b/src/com/resources/questions/questions-list.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="535">
   <si>
     <t>Question#</t>
   </si>
@@ -300,6 +300,9 @@
     <t>System call</t>
   </si>
   <si>
+    <t>None of the above</t>
+  </si>
+  <si>
     <t>What is the importance of software in computer hardware?</t>
   </si>
   <si>
@@ -403,9 +406,6 @@
   </si>
   <si>
     <t>Short Term Scheduler</t>
-  </si>
-  <si>
-    <t>None of the above</t>
   </si>
   <si>
     <t>What is deadlock avoidance?</t>
@@ -483,10 +483,10 @@
 </t>
   </si>
   <si>
-    <t>b) A unit of work in a modern time-sharing system</t>
-  </si>
-  <si>
-    <t>c) Both a and b</t>
+    <t>A unit of work in a modern time-sharing system</t>
+  </si>
+  <si>
+    <t>Both a and b</t>
   </si>
   <si>
     <t>What is a deadlock?</t>
@@ -512,7 +512,7 @@
     <t xml:space="preserve"> A situation where a process is unable to access a shared resource indefinitely </t>
   </si>
   <si>
-    <t xml:space="preserve">c) The software-based solution to inter-process communication </t>
+    <t xml:space="preserve">The software-based solution to inter-process communication </t>
   </si>
   <si>
     <t>What is the sleeping barber problem?</t>
@@ -1692,7 +1692,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1721,7 +1721,13 @@
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2703,7 +2709,7 @@
       <c r="Y17" s="7"/>
       <c r="Z17" s="7"/>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
+    <row r="18" ht="33.75" customHeight="1">
       <c r="A18" s="6">
         <v>17.0</v>
       </c>
@@ -2810,7 +2816,9 @@
       <c r="F20" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G20" s="4"/>
+      <c r="G20" s="9" t="s">
+        <v>94</v>
+      </c>
       <c r="H20" s="6" t="s">
         <v>3</v>
       </c>
@@ -2841,19 +2849,19 @@
         <v>9</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H21" s="6" t="s">
         <v>3</v>
@@ -2882,22 +2890,22 @@
         <v>21.0</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H22" s="6" t="s">
         <v>5</v>
@@ -2926,22 +2934,22 @@
         <v>22.0</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H23" s="6" t="s">
         <v>3</v>
@@ -2970,22 +2978,22 @@
         <v>23.0</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H24" s="6" t="s">
         <v>6</v>
@@ -3014,22 +3022,22 @@
         <v>24.0</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D25" s="9" t="s">
         <v>116</v>
       </c>
+      <c r="D25" s="10" t="s">
+        <v>117</v>
+      </c>
       <c r="E25" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H25" s="6" t="s">
         <v>3</v>
@@ -3058,22 +3066,22 @@
         <v>25.0</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H26" s="6" t="s">
         <v>4</v>
@@ -3102,22 +3110,22 @@
         <v>26.0</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="H27" s="6" t="s">
         <v>5</v>
@@ -3146,7 +3154,7 @@
         <v>27.0</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>130</v>
@@ -3190,7 +3198,7 @@
         <v>28.0</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>135</v>
@@ -3234,7 +3242,7 @@
         <v>29.0</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>139</v>
@@ -3249,7 +3257,7 @@
         <v>142</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="H30" s="6" t="s">
         <v>4</v>
@@ -3278,7 +3286,7 @@
         <v>30.0</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>143</v>
@@ -3322,7 +3330,7 @@
         <v>31.0</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>148</v>
@@ -3366,7 +3374,7 @@
         <v>32.0</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>152</v>
@@ -3374,14 +3382,14 @@
       <c r="D33" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="E33" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="F33" s="5" t="s">
+      <c r="F33" s="11" t="s">
         <v>155</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="H33" s="6" t="s">
         <v>5</v>
@@ -3410,7 +3418,7 @@
         <v>33.0</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>156</v>
@@ -3425,7 +3433,7 @@
         <v>159</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="H34" s="6" t="s">
         <v>3</v>
@@ -3454,7 +3462,7 @@
         <v>34.0</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>160</v>
@@ -3465,11 +3473,11 @@
       <c r="E35" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="F35" s="4" t="s">
+      <c r="F35" s="9" t="s">
         <v>163</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="H35" s="6" t="s">
         <v>4</v>
@@ -3498,7 +3506,7 @@
         <v>35.0</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>164</v>
@@ -3513,7 +3521,7 @@
         <v>167</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="H36" s="6" t="s">
         <v>3</v>
@@ -3542,7 +3550,7 @@
         <v>36.0</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>168</v>
@@ -3586,7 +3594,7 @@
         <v>37.0</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>172</v>
@@ -3630,7 +3638,7 @@
         <v>38.0</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>177</v>
@@ -3674,7 +3682,7 @@
         <v>39.0</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>182</v>
@@ -3718,7 +3726,7 @@
         <v>40.0</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>187</v>
@@ -3821,7 +3829,7 @@
         <v>201</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="H43" s="6" t="s">
         <v>5</v>
@@ -3953,7 +3961,7 @@
         <v>214</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="H46" s="6" t="s">
         <v>4</v>
@@ -4041,7 +4049,7 @@
         <v>221</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="H48" s="6" t="s">
         <v>5</v>
@@ -4085,7 +4093,7 @@
         <v>225</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="H49" s="6" t="s">
         <v>5</v>
@@ -4173,7 +4181,7 @@
         <v>218</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="H51" s="6" t="s">
         <v>4</v>
@@ -4641,22 +4649,22 @@
       <c r="A62" s="6">
         <v>61.0</v>
       </c>
-      <c r="B62" s="9" t="s">
+      <c r="B62" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="C62" s="9" t="s">
+      <c r="C62" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="D62" s="9" t="s">
+      <c r="D62" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="E62" s="9" t="s">
+      <c r="E62" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="F62" s="9" t="s">
+      <c r="F62" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="G62" s="9" t="s">
+      <c r="G62" s="10" t="s">
         <v>289</v>
       </c>
       <c r="H62" s="6" t="s">
@@ -4685,22 +4693,22 @@
       <c r="A63" s="6">
         <v>62.0</v>
       </c>
-      <c r="B63" s="9" t="s">
+      <c r="B63" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="C63" s="9" t="s">
+      <c r="C63" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="D63" s="9" t="s">
+      <c r="D63" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="E63" s="9" t="s">
+      <c r="E63" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="F63" s="9" t="s">
+      <c r="F63" s="10" t="s">
         <v>293</v>
       </c>
-      <c r="G63" s="9" t="s">
+      <c r="G63" s="10" t="s">
         <v>294</v>
       </c>
       <c r="H63" s="6" t="s">
@@ -4729,22 +4737,22 @@
       <c r="A64" s="6">
         <v>63.0</v>
       </c>
-      <c r="B64" s="9" t="s">
+      <c r="B64" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="C64" s="9" t="s">
+      <c r="C64" s="10" t="s">
         <v>295</v>
       </c>
-      <c r="D64" s="9" t="s">
+      <c r="D64" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="E64" s="9" t="s">
+      <c r="E64" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="F64" s="9" t="s">
+      <c r="F64" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="G64" s="9" t="s">
+      <c r="G64" s="10" t="s">
         <v>297</v>
       </c>
       <c r="H64" s="6" t="s">
@@ -4773,10 +4781,10 @@
       <c r="A65" s="6">
         <v>64.0</v>
       </c>
-      <c r="B65" s="9" t="s">
+      <c r="B65" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="C65" s="9" t="s">
+      <c r="C65" s="10" t="s">
         <v>298</v>
       </c>
       <c r="D65" s="8" t="s">
@@ -4817,22 +4825,22 @@
       <c r="A66" s="6">
         <v>65.0</v>
       </c>
-      <c r="B66" s="9" t="s">
+      <c r="B66" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="C66" s="9" t="s">
+      <c r="C66" s="10" t="s">
         <v>302</v>
       </c>
-      <c r="D66" s="9" t="s">
+      <c r="D66" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="E66" s="9" t="s">
+      <c r="E66" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="F66" s="9" t="s">
+      <c r="F66" s="10" t="s">
         <v>305</v>
       </c>
-      <c r="G66" s="9" t="s">
+      <c r="G66" s="10" t="s">
         <v>306</v>
       </c>
       <c r="H66" s="6" t="s">
@@ -4861,22 +4869,22 @@
       <c r="A67" s="6">
         <v>66.0</v>
       </c>
-      <c r="B67" s="9" t="s">
+      <c r="B67" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="C67" s="9" t="s">
+      <c r="C67" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="D67" s="9" t="s">
+      <c r="D67" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="E67" s="9" t="s">
+      <c r="E67" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="F67" s="9" t="s">
+      <c r="F67" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="G67" s="9" t="s">
+      <c r="G67" s="10" t="s">
         <v>286</v>
       </c>
       <c r="H67" s="6" t="s">
@@ -4905,22 +4913,22 @@
       <c r="A68" s="6">
         <v>67.0</v>
       </c>
-      <c r="B68" s="9" t="s">
+      <c r="B68" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="C68" s="9" t="s">
+      <c r="C68" s="10" t="s">
         <v>308</v>
       </c>
-      <c r="D68" s="9" t="s">
+      <c r="D68" s="10" t="s">
         <v>309</v>
       </c>
-      <c r="E68" s="9" t="s">
+      <c r="E68" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="F68" s="9" t="s">
+      <c r="F68" s="10" t="s">
         <v>311</v>
       </c>
-      <c r="G68" s="9" t="s">
+      <c r="G68" s="10" t="s">
         <v>312</v>
       </c>
       <c r="H68" s="6" t="s">
@@ -4949,22 +4957,22 @@
       <c r="A69" s="6">
         <v>68.0</v>
       </c>
-      <c r="B69" s="9" t="s">
+      <c r="B69" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="C69" s="9" t="s">
+      <c r="C69" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="D69" s="9" t="s">
+      <c r="D69" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="E69" s="9" t="s">
+      <c r="E69" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="F69" s="9" t="s">
+      <c r="F69" s="10" t="s">
         <v>316</v>
       </c>
-      <c r="G69" s="9" t="s">
+      <c r="G69" s="10" t="s">
         <v>317</v>
       </c>
       <c r="H69" s="6" t="s">
@@ -4993,7 +5001,7 @@
       <c r="A70" s="6">
         <v>69.0</v>
       </c>
-      <c r="B70" s="9" t="s">
+      <c r="B70" s="10" t="s">
         <v>284</v>
       </c>
       <c r="C70" s="4" t="s">
@@ -5009,7 +5017,7 @@
         <v>321</v>
       </c>
       <c r="G70" s="8" t="s">
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="H70" s="6" t="s">
         <v>5</v>
@@ -5037,7 +5045,7 @@
       <c r="A71" s="6">
         <v>70.0</v>
       </c>
-      <c r="B71" s="9" t="s">
+      <c r="B71" s="10" t="s">
         <v>284</v>
       </c>
       <c r="C71" s="8" t="s">
@@ -5081,7 +5089,7 @@
       <c r="A72" s="6">
         <v>71.0</v>
       </c>
-      <c r="B72" s="9" t="s">
+      <c r="B72" s="10" t="s">
         <v>284</v>
       </c>
       <c r="C72" s="8" t="s">
@@ -5125,7 +5133,7 @@
       <c r="A73" s="6">
         <v>72.0</v>
       </c>
-      <c r="B73" s="9" t="s">
+      <c r="B73" s="10" t="s">
         <v>284</v>
       </c>
       <c r="C73" s="4" t="s">
@@ -5169,7 +5177,7 @@
       <c r="A74" s="6">
         <v>73.0</v>
       </c>
-      <c r="B74" s="9" t="s">
+      <c r="B74" s="10" t="s">
         <v>284</v>
       </c>
       <c r="C74" s="4" t="s">
@@ -5213,7 +5221,7 @@
       <c r="A75" s="6">
         <v>74.0</v>
       </c>
-      <c r="B75" s="9" t="s">
+      <c r="B75" s="10" t="s">
         <v>284</v>
       </c>
       <c r="C75" s="8" t="s">
@@ -5257,7 +5265,7 @@
       <c r="A76" s="6">
         <v>75.0</v>
       </c>
-      <c r="B76" s="9" t="s">
+      <c r="B76" s="10" t="s">
         <v>284</v>
       </c>
       <c r="C76" s="8" t="s">
@@ -5301,7 +5309,7 @@
       <c r="A77" s="6">
         <v>76.0</v>
       </c>
-      <c r="B77" s="9" t="s">
+      <c r="B77" s="10" t="s">
         <v>284</v>
       </c>
       <c r="C77" s="8" t="s">
@@ -5345,7 +5353,7 @@
       <c r="A78" s="6">
         <v>77.0</v>
       </c>
-      <c r="B78" s="9" t="s">
+      <c r="B78" s="10" t="s">
         <v>284</v>
       </c>
       <c r="C78" s="8" t="s">
@@ -5389,7 +5397,7 @@
       <c r="A79" s="6">
         <v>78.0</v>
       </c>
-      <c r="B79" s="9" t="s">
+      <c r="B79" s="10" t="s">
         <v>284</v>
       </c>
       <c r="C79" s="4" t="s">
@@ -5433,7 +5441,7 @@
       <c r="A80" s="6">
         <v>79.0</v>
       </c>
-      <c r="B80" s="9" t="s">
+      <c r="B80" s="10" t="s">
         <v>284</v>
       </c>
       <c r="C80" s="4" t="s">
@@ -5477,7 +5485,7 @@
       <c r="A81" s="6">
         <v>80.0</v>
       </c>
-      <c r="B81" s="9" t="s">
+      <c r="B81" s="10" t="s">
         <v>284</v>
       </c>
       <c r="C81" s="8" t="s">
@@ -5577,7 +5585,7 @@
       <c r="E83" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="F83" s="4" t="s">
+      <c r="F83" s="9" t="s">
         <v>381</v>
       </c>
       <c r="G83" s="4" t="s">
@@ -6401,22 +6409,22 @@
       <c r="A102" s="6">
         <v>101.0</v>
       </c>
-      <c r="B102" s="9" t="s">
+      <c r="B102" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="C102" s="9" t="s">
+      <c r="C102" s="10" t="s">
         <v>441</v>
       </c>
       <c r="D102" s="8" t="s">
         <v>442</v>
       </c>
-      <c r="E102" s="9" t="s">
+      <c r="E102" s="10" t="s">
         <v>443</v>
       </c>
-      <c r="F102" s="9" t="s">
+      <c r="F102" s="10" t="s">
         <v>444</v>
       </c>
-      <c r="G102" s="9" t="s">
+      <c r="G102" s="10" t="s">
         <v>445</v>
       </c>
       <c r="H102" s="6" t="s">
@@ -6445,22 +6453,22 @@
       <c r="A103" s="6">
         <v>102.0</v>
       </c>
-      <c r="B103" s="9" t="s">
+      <c r="B103" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="C103" s="9" t="s">
+      <c r="C103" s="10" t="s">
         <v>446</v>
       </c>
-      <c r="D103" s="9" t="s">
+      <c r="D103" s="10" t="s">
         <v>447</v>
       </c>
-      <c r="E103" s="9" t="s">
+      <c r="E103" s="10" t="s">
         <v>448</v>
       </c>
-      <c r="F103" s="9" t="s">
+      <c r="F103" s="10" t="s">
         <v>449</v>
       </c>
-      <c r="G103" s="9" t="s">
+      <c r="G103" s="10" t="s">
         <v>450</v>
       </c>
       <c r="H103" s="6" t="s">
@@ -6489,22 +6497,22 @@
       <c r="A104" s="6">
         <v>103.0</v>
       </c>
-      <c r="B104" s="9" t="s">
+      <c r="B104" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="C104" s="9" t="s">
+      <c r="C104" s="10" t="s">
         <v>451</v>
       </c>
-      <c r="D104" s="9" t="s">
+      <c r="D104" s="10" t="s">
         <v>452</v>
       </c>
-      <c r="E104" s="9" t="s">
+      <c r="E104" s="10" t="s">
         <v>453</v>
       </c>
-      <c r="F104" s="9" t="s">
+      <c r="F104" s="10" t="s">
         <v>454</v>
       </c>
-      <c r="G104" s="9" t="s">
+      <c r="G104" s="10" t="s">
         <v>455</v>
       </c>
       <c r="H104" s="6" t="s">
@@ -6533,22 +6541,22 @@
       <c r="A105" s="6">
         <v>104.0</v>
       </c>
-      <c r="B105" s="9" t="s">
+      <c r="B105" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="C105" s="9" t="s">
+      <c r="C105" s="10" t="s">
         <v>456</v>
       </c>
-      <c r="D105" s="9" t="s">
+      <c r="D105" s="10" t="s">
         <v>457</v>
       </c>
-      <c r="E105" s="9" t="s">
+      <c r="E105" s="10" t="s">
         <v>458</v>
       </c>
-      <c r="F105" s="9" t="s">
+      <c r="F105" s="10" t="s">
         <v>459</v>
       </c>
-      <c r="G105" s="9" t="s">
+      <c r="G105" s="10" t="s">
         <v>460</v>
       </c>
       <c r="H105" s="6" t="s">
@@ -6577,22 +6585,22 @@
       <c r="A106" s="6">
         <v>105.0</v>
       </c>
-      <c r="B106" s="9" t="s">
+      <c r="B106" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="C106" s="9" t="s">
+      <c r="C106" s="10" t="s">
         <v>461</v>
       </c>
-      <c r="D106" s="9" t="s">
+      <c r="D106" s="10" t="s">
         <v>462</v>
       </c>
-      <c r="E106" s="9" t="s">
+      <c r="E106" s="10" t="s">
         <v>463</v>
       </c>
-      <c r="F106" s="9" t="s">
+      <c r="F106" s="10" t="s">
         <v>464</v>
       </c>
-      <c r="G106" s="9" t="s">
+      <c r="G106" s="10" t="s">
         <v>465</v>
       </c>
       <c r="H106" s="6" t="s">
@@ -6621,22 +6629,22 @@
       <c r="A107" s="6">
         <v>106.0</v>
       </c>
-      <c r="B107" s="9" t="s">
+      <c r="B107" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="C107" s="9" t="s">
+      <c r="C107" s="10" t="s">
         <v>466</v>
       </c>
-      <c r="D107" s="9" t="s">
+      <c r="D107" s="10" t="s">
         <v>467</v>
       </c>
-      <c r="E107" s="9" t="s">
+      <c r="E107" s="10" t="s">
         <v>468</v>
       </c>
-      <c r="F107" s="9" t="s">
+      <c r="F107" s="10" t="s">
         <v>469</v>
       </c>
-      <c r="G107" s="9" t="s">
+      <c r="G107" s="10" t="s">
         <v>455</v>
       </c>
       <c r="H107" s="6" t="s">
@@ -6665,22 +6673,22 @@
       <c r="A108" s="6">
         <v>107.0</v>
       </c>
-      <c r="B108" s="9" t="s">
+      <c r="B108" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="C108" s="9" t="s">
+      <c r="C108" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="D108" s="9" t="s">
+      <c r="D108" s="10" t="s">
         <v>471</v>
       </c>
-      <c r="E108" s="9" t="s">
+      <c r="E108" s="10" t="s">
         <v>472</v>
       </c>
-      <c r="F108" s="9" t="s">
+      <c r="F108" s="10" t="s">
         <v>472</v>
       </c>
-      <c r="G108" s="9" t="s">
+      <c r="G108" s="10" t="s">
         <v>455</v>
       </c>
       <c r="H108" s="6" t="s">
@@ -6709,22 +6717,22 @@
       <c r="A109" s="6">
         <v>108.0</v>
       </c>
-      <c r="B109" s="9" t="s">
+      <c r="B109" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="C109" s="9" t="s">
+      <c r="C109" s="10" t="s">
         <v>473</v>
       </c>
-      <c r="D109" s="9" t="s">
+      <c r="D109" s="10" t="s">
         <v>474</v>
       </c>
-      <c r="E109" s="9" t="s">
+      <c r="E109" s="10" t="s">
         <v>475</v>
       </c>
-      <c r="F109" s="9" t="s">
+      <c r="F109" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="G109" s="9" t="s">
+      <c r="G109" s="10" t="s">
         <v>477</v>
       </c>
       <c r="H109" s="6" t="s">
@@ -6753,22 +6761,22 @@
       <c r="A110" s="6">
         <v>109.0</v>
       </c>
-      <c r="B110" s="9" t="s">
+      <c r="B110" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="C110" s="9" t="s">
+      <c r="C110" s="10" t="s">
         <v>478</v>
       </c>
-      <c r="D110" s="9" t="s">
+      <c r="D110" s="10" t="s">
         <v>479</v>
       </c>
-      <c r="E110" s="9" t="s">
+      <c r="E110" s="10" t="s">
         <v>480</v>
       </c>
-      <c r="F110" s="9" t="s">
+      <c r="F110" s="10" t="s">
         <v>481</v>
       </c>
-      <c r="G110" s="9" t="s">
+      <c r="G110" s="10" t="s">
         <v>482</v>
       </c>
       <c r="H110" s="6" t="s">
@@ -6797,22 +6805,22 @@
       <c r="A111" s="6">
         <v>110.0</v>
       </c>
-      <c r="B111" s="9" t="s">
+      <c r="B111" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="C111" s="9" t="s">
+      <c r="C111" s="10" t="s">
         <v>483</v>
       </c>
-      <c r="D111" s="9" t="s">
+      <c r="D111" s="10" t="s">
         <v>484</v>
       </c>
-      <c r="E111" s="9" t="s">
+      <c r="E111" s="10" t="s">
         <v>485</v>
       </c>
-      <c r="F111" s="9" t="s">
+      <c r="F111" s="10" t="s">
         <v>486</v>
       </c>
-      <c r="G111" s="9" t="s">
+      <c r="G111" s="10" t="s">
         <v>487</v>
       </c>
       <c r="H111" s="6" t="s">
@@ -6841,22 +6849,22 @@
       <c r="A112" s="6">
         <v>111.0</v>
       </c>
-      <c r="B112" s="9" t="s">
+      <c r="B112" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="C112" s="9" t="s">
+      <c r="C112" s="10" t="s">
         <v>488</v>
       </c>
-      <c r="D112" s="9" t="s">
+      <c r="D112" s="10" t="s">
         <v>489</v>
       </c>
-      <c r="E112" s="9" t="s">
+      <c r="E112" s="10" t="s">
         <v>490</v>
       </c>
-      <c r="F112" s="9" t="s">
+      <c r="F112" s="10" t="s">
         <v>491</v>
       </c>
-      <c r="G112" s="9" t="s">
+      <c r="G112" s="10" t="s">
         <v>492</v>
       </c>
       <c r="H112" s="6" t="s">
@@ -6885,22 +6893,22 @@
       <c r="A113" s="6">
         <v>112.0</v>
       </c>
-      <c r="B113" s="9" t="s">
+      <c r="B113" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="C113" s="9" t="s">
+      <c r="C113" s="10" t="s">
         <v>493</v>
       </c>
-      <c r="D113" s="9" t="s">
+      <c r="D113" s="10" t="s">
         <v>494</v>
       </c>
-      <c r="E113" s="9" t="s">
+      <c r="E113" s="10" t="s">
         <v>495</v>
       </c>
-      <c r="F113" s="9" t="s">
+      <c r="F113" s="10" t="s">
         <v>496</v>
       </c>
-      <c r="G113" s="9" t="s">
+      <c r="G113" s="10" t="s">
         <v>455</v>
       </c>
       <c r="H113" s="6" t="s">
@@ -6929,22 +6937,22 @@
       <c r="A114" s="6">
         <v>113.0</v>
       </c>
-      <c r="B114" s="9" t="s">
+      <c r="B114" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="C114" s="9" t="s">
+      <c r="C114" s="10" t="s">
         <v>497</v>
       </c>
-      <c r="D114" s="9" t="s">
+      <c r="D114" s="10" t="s">
         <v>498</v>
       </c>
-      <c r="E114" s="9" t="s">
+      <c r="E114" s="10" t="s">
         <v>499</v>
       </c>
-      <c r="F114" s="9" t="s">
+      <c r="F114" s="10" t="s">
         <v>500</v>
       </c>
-      <c r="G114" s="9" t="s">
+      <c r="G114" s="10" t="s">
         <v>501</v>
       </c>
       <c r="H114" s="6" t="s">
@@ -6973,22 +6981,22 @@
       <c r="A115" s="6">
         <v>114.0</v>
       </c>
-      <c r="B115" s="9" t="s">
+      <c r="B115" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="C115" s="9" t="s">
+      <c r="C115" s="10" t="s">
         <v>502</v>
       </c>
-      <c r="D115" s="9" t="s">
+      <c r="D115" s="10" t="s">
         <v>503</v>
       </c>
-      <c r="E115" s="9" t="s">
+      <c r="E115" s="10" t="s">
         <v>504</v>
       </c>
-      <c r="F115" s="9" t="s">
+      <c r="F115" s="10" t="s">
         <v>505</v>
       </c>
-      <c r="G115" s="9" t="s">
+      <c r="G115" s="10" t="s">
         <v>506</v>
       </c>
       <c r="H115" s="6" t="s">
@@ -7017,22 +7025,22 @@
       <c r="A116" s="6">
         <v>115.0</v>
       </c>
-      <c r="B116" s="9" t="s">
+      <c r="B116" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="C116" s="9" t="s">
+      <c r="C116" s="10" t="s">
         <v>507</v>
       </c>
-      <c r="D116" s="9" t="s">
+      <c r="D116" s="10" t="s">
         <v>508</v>
       </c>
-      <c r="E116" s="9" t="s">
+      <c r="E116" s="10" t="s">
         <v>509</v>
       </c>
-      <c r="F116" s="9" t="s">
+      <c r="F116" s="10" t="s">
         <v>510</v>
       </c>
-      <c r="G116" s="9" t="s">
+      <c r="G116" s="10" t="s">
         <v>511</v>
       </c>
       <c r="H116" s="6" t="s">
@@ -7061,22 +7069,22 @@
       <c r="A117" s="6">
         <v>116.0</v>
       </c>
-      <c r="B117" s="9" t="s">
+      <c r="B117" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="C117" s="9" t="s">
+      <c r="C117" s="10" t="s">
         <v>512</v>
       </c>
-      <c r="D117" s="9" t="s">
+      <c r="D117" s="10" t="s">
         <v>513</v>
       </c>
-      <c r="E117" s="9" t="s">
+      <c r="E117" s="10" t="s">
         <v>514</v>
       </c>
-      <c r="F117" s="9" t="s">
+      <c r="F117" s="10" t="s">
         <v>515</v>
       </c>
-      <c r="G117" s="9" t="s">
+      <c r="G117" s="10" t="s">
         <v>516</v>
       </c>
       <c r="H117" s="6" t="s">
@@ -7105,22 +7113,22 @@
       <c r="A118" s="6">
         <v>117.0</v>
       </c>
-      <c r="B118" s="9" t="s">
+      <c r="B118" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="C118" s="9" t="s">
+      <c r="C118" s="10" t="s">
         <v>517</v>
       </c>
-      <c r="D118" s="9" t="s">
+      <c r="D118" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="E118" s="9" t="s">
+      <c r="E118" s="10" t="s">
         <v>519</v>
       </c>
-      <c r="F118" s="9" t="s">
+      <c r="F118" s="10" t="s">
         <v>519</v>
       </c>
-      <c r="G118" s="9" t="s">
+      <c r="G118" s="10" t="s">
         <v>520</v>
       </c>
       <c r="H118" s="6" t="s">
@@ -7149,22 +7157,22 @@
       <c r="A119" s="6">
         <v>118.0</v>
       </c>
-      <c r="B119" s="9" t="s">
+      <c r="B119" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="C119" s="9" t="s">
+      <c r="C119" s="10" t="s">
         <v>521</v>
       </c>
-      <c r="D119" s="9" t="s">
+      <c r="D119" s="10" t="s">
         <v>522</v>
       </c>
-      <c r="E119" s="9" t="s">
+      <c r="E119" s="10" t="s">
         <v>523</v>
       </c>
-      <c r="F119" s="9" t="s">
+      <c r="F119" s="10" t="s">
         <v>524</v>
       </c>
-      <c r="G119" s="9" t="s">
+      <c r="G119" s="10" t="s">
         <v>525</v>
       </c>
       <c r="H119" s="6" t="s">
@@ -7193,23 +7201,23 @@
       <c r="A120" s="6">
         <v>119.0</v>
       </c>
-      <c r="B120" s="9" t="s">
+      <c r="B120" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="C120" s="9" t="s">
+      <c r="C120" s="10" t="s">
         <v>526</v>
       </c>
-      <c r="D120" s="9" t="s">
+      <c r="D120" s="10" t="s">
         <v>527</v>
       </c>
-      <c r="E120" s="9" t="s">
+      <c r="E120" s="10" t="s">
         <v>528</v>
       </c>
-      <c r="F120" s="9" t="s">
+      <c r="F120" s="10" t="s">
         <v>529</v>
       </c>
-      <c r="G120" s="9" t="s">
-        <v>129</v>
+      <c r="G120" s="10" t="s">
+        <v>94</v>
       </c>
       <c r="H120" s="6" t="s">
         <v>4</v>
@@ -7237,22 +7245,22 @@
       <c r="A121" s="6">
         <v>120.0</v>
       </c>
-      <c r="B121" s="9" t="s">
+      <c r="B121" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="C121" s="9" t="s">
+      <c r="C121" s="10" t="s">
         <v>530</v>
       </c>
-      <c r="D121" s="9" t="s">
+      <c r="D121" s="10" t="s">
         <v>531</v>
       </c>
-      <c r="E121" s="9" t="s">
+      <c r="E121" s="10" t="s">
         <v>532</v>
       </c>
-      <c r="F121" s="9" t="s">
+      <c r="F121" s="10" t="s">
         <v>533</v>
       </c>
-      <c r="G121" s="9" t="s">
+      <c r="G121" s="10" t="s">
         <v>534</v>
       </c>
       <c r="H121" s="6" t="s">
